--- a/donnees_tp/mesures_ultrasons.xlsx
+++ b/donnees_tp/mesures_ultrasons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clacpatia\Nextcloud\Enseignement prepas\approche_numeriques\donnees_exp\donnees_tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25B609EF-0590-4366-BE51-712671873B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F62FB6-A858-437C-A5B5-87568515DD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D1863250-C257-4EF4-88EC-768900A009C4}"/>
   </bookViews>
@@ -696,73 +696,137 @@
       <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
+      <c r="B2" s="2">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="D2" s="2">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
+      <c r="B3" s="2">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="D3" s="2">
+        <v>60</v>
+      </c>
+      <c r="E3" s="3">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
+      <c r="B4" s="2">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="D4" s="2">
+        <v>90</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4.5999999999999996</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
+      <c r="B5" s="2">
+        <v>40</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="D5" s="2">
+        <v>120</v>
+      </c>
+      <c r="E5" s="3">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
+      <c r="B6" s="2">
+        <v>50</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D6" s="2">
+        <v>150</v>
+      </c>
+      <c r="E6" s="3">
+        <v>8.3000000000000007</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
+      <c r="B7" s="2">
+        <v>60</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D7" s="2">
+        <v>180</v>
+      </c>
+      <c r="E7" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
+      <c r="B8" s="2">
+        <v>70</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="D8" s="2">
+        <v>210</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5.0999999999999996</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3"/>
+      <c r="B9" s="2">
+        <v>80</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="D9" s="2">
+        <v>240</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">

--- a/donnees_tp/mesures_ultrasons.xlsx
+++ b/donnees_tp/mesures_ultrasons.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clacpatia\Nextcloud\Enseignement prepas\approche_numeriques\donnees_exp\donnees_tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F62FB6-A858-437C-A5B5-87568515DD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB3CFD2-686B-476D-9057-ED0DFBD452AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D1863250-C257-4EF4-88EC-768900A009C4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Groupe A" sheetId="1" r:id="rId1"/>
-    <sheet name="Groupe B" sheetId="2" r:id="rId2"/>
+    <sheet name="Groupe Test" sheetId="3" r:id="rId1"/>
+    <sheet name="Groupe A" sheetId="1" r:id="rId2"/>
+    <sheet name="Groupe B" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
   <si>
     <t>Binômes</t>
   </si>
@@ -658,10 +659,225 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4465D81B-F099-4052-91EE-BA2B25D83C05}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.453125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="D2" s="2">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="D3" s="2">
+        <v>60</v>
+      </c>
+      <c r="E3" s="3">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="D4" s="2">
+        <v>90</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>40</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="D5" s="2">
+        <v>120</v>
+      </c>
+      <c r="E5" s="3">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
+        <v>50</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D6" s="2">
+        <v>150</v>
+      </c>
+      <c r="E6" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2">
+        <v>60</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D7" s="2">
+        <v>180</v>
+      </c>
+      <c r="E7" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2">
+        <v>70</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="D8" s="2">
+        <v>210</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2">
+        <v>80</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="D9" s="2">
+        <v>240</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2">
+        <v>90</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48769F07-B579-45D4-9E00-B127F70F2385}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -871,7 +1087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3260982-9A00-413F-8AD6-AFECE47BF297}">
   <dimension ref="A1:E13"/>
   <sheetViews>
